--- a/python基础知识/读取Excel示例.xlsx
+++ b/python基础知识/读取Excel示例.xlsx
@@ -16,57 +16,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>用例名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcase2</t>
+  </si>
+  <si>
+    <t>testcase3</t>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/home/msg/data/personalcontent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +99,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,21 +125,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -428,66 +453,82 @@
     <col min="4" max="4" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>60</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>80</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3:B4" r:id="rId2" display="https://www.baidu.com/home/msg/data/personalcontent"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
